--- a/natmiOut/OldD7/LR-pairs_lrc2p/A2m-Lrp1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/A2m-Lrp1.xlsx
@@ -531,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.209893723570355</v>
+        <v>0.2941963333333333</v>
       </c>
       <c r="H2">
-        <v>0.209893723570355</v>
+        <v>0.882589</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N2">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q2">
-        <v>1.431765314763996</v>
+        <v>2.392179228275333</v>
       </c>
       <c r="R2">
-        <v>1.431765314763996</v>
+        <v>21.529613054478</v>
       </c>
       <c r="S2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="T2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.209893723570355</v>
+        <v>0.2941963333333333</v>
       </c>
       <c r="H3">
-        <v>0.209893723570355</v>
+        <v>0.882589</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -611,34 +611,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P3">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q3">
-        <v>50.93591166734447</v>
+        <v>71.6004441076049</v>
       </c>
       <c r="R3">
-        <v>50.93591166734447</v>
+        <v>644.4039969684441</v>
       </c>
       <c r="S3">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="T3">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.209893723570355</v>
+        <v>0.2941963333333333</v>
       </c>
       <c r="H4">
-        <v>0.209893723570355</v>
+        <v>0.882589</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -673,34 +673,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N4">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q4">
-        <v>18.53811384644951</v>
+        <v>30.57954307465944</v>
       </c>
       <c r="R4">
-        <v>18.53811384644951</v>
+        <v>275.215887671935</v>
       </c>
       <c r="S4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="T4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.209893723570355</v>
+        <v>0.2941963333333333</v>
       </c>
       <c r="H5">
-        <v>0.209893723570355</v>
+        <v>0.882589</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N5">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q5">
-        <v>5.872667816441344</v>
+        <v>9.831673518452444</v>
       </c>
       <c r="R5">
-        <v>5.872667816441344</v>
+        <v>88.485061666072</v>
       </c>
       <c r="S5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="T5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
     </row>
   </sheetData>
